--- a/yabi-backend-master/src/main/resources/网站数据.xlsx
+++ b/yabi-backend-master/src/main/resources/网站数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\PlanetProjects\YaBI\yabi-backend-master\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6232911F-D538-4E0D-A648-D653023D640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF760B-3B30-4AF6-A6BA-C5AD9424576C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10088" yWindow="480" windowWidth="14190" windowHeight="13695" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="9810" yWindow="480" windowWidth="14190" windowHeight="13695" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="22.5" x14ac:dyDescent="0.6"/>
@@ -503,6 +511,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yabi-backend-master/src/main/resources/网站数据.xlsx
+++ b/yabi-backend-master/src/main/resources/网站数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\PlanetProjects\YaBI\yabi-backend-master\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF760B-3B30-4AF6-A6BA-C5AD9424576C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2808E51-0485-4FFF-998A-32DECF4E249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="480" windowWidth="14190" windowHeight="13695" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="3967" yWindow="570" windowWidth="14191" windowHeight="13695" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,14 @@
   </si>
   <si>
     <t>5号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="22.5" x14ac:dyDescent="0.6"/>
@@ -527,6 +535,22 @@
         <v>80</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yabi-backend-master/src/main/resources/网站数据.xlsx
+++ b/yabi-backend-master/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\PlanetProjects\YaBI\yabi-backend-master\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2808E51-0485-4FFF-998A-32DECF4E249F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5268420B-6D05-4F8B-9483-213EBC81F4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3967" yWindow="570" windowWidth="14191" windowHeight="13695" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,14 @@
   </si>
   <si>
     <t>7号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="22.5" x14ac:dyDescent="0.6"/>
@@ -551,6 +559,22 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/yabi-backend-master/src/main/resources/网站数据.xlsx
+++ b/yabi-backend-master/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\PlanetProjects\YaBI\yabi-backend-master\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5268420B-6D05-4F8B-9483-213EBC81F4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38501BA-6503-4287-8103-C97825EDE1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3967" yWindow="570" windowWidth="14191" windowHeight="13695" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>9号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="22.5" x14ac:dyDescent="0.6"/>
@@ -548,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.6">
@@ -572,6 +576,14 @@
         <v>10</v>
       </c>
       <c r="B10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>90</v>
       </c>
     </row>
